--- a/src/assets/data/LymphNodes-R1_EMQverify.xlsx
+++ b/src/assets/data/LymphNodes-R1_EMQverify.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpaul/Work/CNS/ccf-asct-reporter/src/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpaul/Work/CNS/ccf-asct-reporter/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC1B13-09C5-2D45-8D8B-07D3F5CCEB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C06D16-822F-2B42-B570-3E5151C43A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="740" windowWidth="30420" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,8 +407,7 @@
     <t>Subcapsular Sinus Trabecular Sinus,Fibroblastic Reticular Cells</t>
   </si>
   <si>
-    <t>Subcapsular Sinus Trabecular Sinus,Neutrophils,
-Lobule,Venule</t>
+    <t>Subcapsular Sinus Trabecular Sinus,Neutrophils,Lobule*ELLEN, Venule</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
